--- a/4 LabelData.xlsx
+++ b/4 LabelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140BAF1A-833D-4F4C-8214-94B973AF9B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70158114-E612-4A91-8C77-C032BF7727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="645" windowWidth="29085" windowHeight="19275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="600" windowWidth="33735" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="342">
   <si>
     <t>SysBP</t>
   </si>
@@ -1048,6 +1048,21 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>Asian</t>
   </si>
 </sst>
 </file>
@@ -1436,38 +1451,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1003"/>
+  <dimension ref="A1:AH1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="5" customWidth="1"/>
-    <col min="6" max="20" width="8.7109375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.7109375" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="14.42578125" style="5"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7" max="21" width="8.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="8.7109375" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R1" s="2" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>328</v>
       </c>
@@ -1477,86 +1493,89 @@
       <c r="D2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="2"/>
+      <c r="W2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
@@ -1569,63 +1588,66 @@
       <c r="D3" s="2">
         <v>183</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U3" s="7" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>238</v>
       </c>
@@ -1638,58 +1660,61 @@
       <c r="D4" s="2">
         <v>184</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T4" s="4"/>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="4"/>
+      <c r="V4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>286</v>
       </c>
@@ -1702,63 +1727,66 @@
       <c r="D5" s="2">
         <v>183</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U5" s="7" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -1771,58 +1799,61 @@
       <c r="D6" s="2">
         <v>187</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="7" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -1835,61 +1866,64 @@
       <c r="D7" s="2">
         <v>184</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="7" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -1902,64 +1936,67 @@
       <c r="D8" s="2">
         <v>181</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T8" s="4"/>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="4"/>
+      <c r="V8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="AF8" s="4" t="s">
         <v>334</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="AH8" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
@@ -1972,58 +2009,61 @@
       <c r="D9" s="2">
         <v>184</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T9" s="4"/>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="4"/>
+      <c r="V9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>309</v>
       </c>
@@ -2036,63 +2076,66 @@
       <c r="D10" s="2">
         <v>180</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>207</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U10" s="7" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V10" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>255</v>
       </c>
@@ -2105,66 +2148,69 @@
       <c r="D11" s="2">
         <v>171</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="S11" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="Y11" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC11" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>208</v>
       </c>
@@ -2177,58 +2223,61 @@
       <c r="D12" s="2">
         <v>182</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="7" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>215</v>
       </c>
@@ -2241,61 +2290,64 @@
       <c r="D13" s="2">
         <v>185</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="7" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>78</v>
       </c>
@@ -2308,61 +2360,64 @@
       <c r="D14" s="2">
         <v>178</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T14" s="4"/>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="4"/>
+      <c r="V14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Y14" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC14" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -2375,58 +2430,61 @@
       <c r="D15" s="2">
         <v>178</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="7" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>197</v>
       </c>
@@ -2439,64 +2497,67 @@
       <c r="D16" s="2">
         <v>188</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="7" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>334</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="AD16" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>123</v>
       </c>
@@ -2509,58 +2570,61 @@
       <c r="D17" s="2">
         <v>182</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="7" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Z17" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>129</v>
       </c>
@@ -2573,64 +2637,67 @@
       <c r="D18" s="2">
         <v>170</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="7" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB18" s="4" t="s">
+      <c r="Z18" s="4" t="s">
         <v>334</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="AD18" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -2643,64 +2710,67 @@
       <c r="D19" s="2">
         <v>178</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="7" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X19" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="Y19" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AB19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>233</v>
       </c>
@@ -2713,61 +2783,64 @@
       <c r="D20" s="2">
         <v>186</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S20" s="4"/>
+      <c r="S20" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T20" s="4"/>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="4"/>
+      <c r="V20" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Y20" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB20" s="4" t="s">
+      <c r="Z20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC20" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>138</v>
       </c>
@@ -2780,58 +2853,61 @@
       <c r="D21" s="2">
         <v>172</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="7" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AC21" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>223</v>
       </c>
@@ -2844,64 +2920,67 @@
       <c r="D22" s="2">
         <v>177</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="R22" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S22" s="4"/>
+      <c r="S22" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T22" s="4"/>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="4"/>
+      <c r="V22" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="X22" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="Y22" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="Z22" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC22" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>202</v>
       </c>
@@ -2914,58 +2993,61 @@
       <c r="D23" s="2">
         <v>168</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="7" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>261</v>
       </c>
@@ -2978,61 +3060,64 @@
       <c r="D24" s="2">
         <v>189</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="7" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="Y24" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC24" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>262</v>
       </c>
@@ -3045,64 +3130,67 @@
       <c r="D25" s="2">
         <v>190</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="7" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="X25" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="Y25" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AB25" s="4" t="s">
+      <c r="Z25" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC25" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>222</v>
       </c>
@@ -3115,58 +3203,61 @@
       <c r="D26" s="2">
         <v>185</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="7" t="s">
+      <c r="S26" s="4"/>
+      <c r="T26" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>99</v>
       </c>
@@ -3179,61 +3270,64 @@
       <c r="D27" s="2">
         <v>177</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R27" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S27" s="4"/>
+      <c r="S27" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T27" s="4"/>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="4"/>
+      <c r="V27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Y27" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC27" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3246,63 +3340,66 @@
       <c r="D28" s="2">
         <v>169</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U28" s="7" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y28" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB28" s="4" t="s">
+      <c r="Z28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC28" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>251</v>
       </c>
@@ -3315,66 +3412,69 @@
       <c r="D29" s="2">
         <v>192</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U29" s="7" t="s">
+      <c r="S29" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="X29" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="Y29" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC29" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -3387,61 +3487,64 @@
       <c r="D30" s="2">
         <v>182</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R30" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S30" s="4"/>
+      <c r="S30" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T30" s="4"/>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="4"/>
+      <c r="V30" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="Y30" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB30" s="4" t="s">
+      <c r="Z30" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC30" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>104</v>
       </c>
@@ -3454,61 +3557,64 @@
       <c r="D31" s="2">
         <v>190</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S31" s="4"/>
+      <c r="S31" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T31" s="4"/>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="4"/>
+      <c r="V31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Y31" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB31" s="4" t="s">
+      <c r="Z31" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC31" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>183</v>
       </c>
@@ -3521,61 +3627,64 @@
       <c r="D32" s="2">
         <v>170</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="7" t="s">
+      <c r="S32" s="4"/>
+      <c r="T32" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="Y32" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC32" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>77</v>
       </c>
@@ -3588,61 +3697,64 @@
       <c r="D33" s="2">
         <v>176</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S33" s="4"/>
+      <c r="S33" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T33" s="4"/>
-      <c r="U33" s="7" t="s">
+      <c r="U33" s="4"/>
+      <c r="V33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Y33" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB33" s="4" t="s">
+      <c r="Z33" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC33" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>108</v>
       </c>
@@ -3655,61 +3767,64 @@
       <c r="D34" s="2">
         <v>180</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="S34" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="7" t="s">
+      <c r="S34" s="4"/>
+      <c r="T34" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Y34" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB34" s="4" t="s">
+      <c r="Z34" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC34" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>87</v>
       </c>
@@ -3722,66 +3837,69 @@
       <c r="D35" s="2">
         <v>181</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="R35" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U35" s="7" t="s">
+      <c r="S35" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Y35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB35" s="4" t="s">
+      <c r="Z35" s="4" t="s">
         <v>334</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>334</v>
       </c>
+      <c r="AD35" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -3794,59 +3912,62 @@
       <c r="D36" s="2">
         <v>171</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="7" t="s">
+      <c r="S36" s="4"/>
+      <c r="T36" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y36" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB36" s="4"/>
+      <c r="Z36" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
@@ -3859,63 +3980,66 @@
       <c r="D37" s="2">
         <v>172</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U37" s="7" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y37" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB37" s="4" t="s">
+      <c r="Z37" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC37" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>244</v>
       </c>
@@ -3928,55 +4052,58 @@
       <c r="D38" s="2">
         <v>180</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="R38" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S38" s="4"/>
+      <c r="S38" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T38" s="4"/>
-      <c r="U38" s="7" t="s">
+      <c r="U38" s="4"/>
+      <c r="V38" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
@@ -3989,61 +4116,64 @@
       <c r="D39" s="2">
         <v>191</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="7" t="s">
+      <c r="S39" s="4"/>
+      <c r="T39" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB39" s="4" t="s">
+      <c r="Z39" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC39" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -4056,60 +4186,63 @@
       <c r="D40" s="2">
         <v>190</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R40" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U40" s="7" t="s">
+      <c r="S40" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="Z40" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>148</v>
       </c>
@@ -4122,61 +4255,64 @@
       <c r="D41" s="2">
         <v>175</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="7" t="s">
+      <c r="S41" s="4"/>
+      <c r="T41" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Y41" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB41" s="4" t="s">
+      <c r="Z41" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC41" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>86</v>
       </c>
@@ -4189,61 +4325,64 @@
       <c r="D42" s="2">
         <v>185</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="7" t="s">
+      <c r="S42" s="4"/>
+      <c r="T42" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y42" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB42" s="4" t="s">
+      <c r="Z42" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC42" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -4256,58 +4395,61 @@
       <c r="D43" s="2">
         <v>175</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="R43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R43" s="4"/>
-      <c r="S43" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="7" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Z43" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
@@ -4320,58 +4462,61 @@
       <c r="D44" s="2">
         <v>167</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>241</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>285</v>
       </c>
       <c r="N44" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="R44" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S44" s="4"/>
+      <c r="S44" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T44" s="4"/>
-      <c r="U44" s="7" t="s">
+      <c r="U44" s="4"/>
+      <c r="V44" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Y44" s="4" t="s">
+      <c r="Z44" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>182</v>
       </c>
@@ -4384,61 +4529,64 @@
       <c r="D45" s="2">
         <v>174</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="R45" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="7" t="s">
+      <c r="S45" s="4"/>
+      <c r="T45" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U45" s="4"/>
+      <c r="V45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="Y45" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB45" s="4" t="s">
+      <c r="Z45" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC45" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>214</v>
       </c>
@@ -4451,61 +4599,64 @@
       <c r="D46" s="2">
         <v>175</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="R46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="7" t="s">
+      <c r="S46" s="4"/>
+      <c r="T46" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="Y46" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB46" s="4" t="s">
+      <c r="Z46" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC46" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>88</v>
       </c>
@@ -4518,58 +4669,61 @@
       <c r="D47" s="2">
         <v>188</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="7" t="s">
+      <c r="S47" s="4"/>
+      <c r="T47" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="Z47" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
@@ -4582,63 +4736,66 @@
       <c r="D48" s="2">
         <v>170</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="R48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U48" s="7" t="s">
+      <c r="S48" s="4"/>
+      <c r="T48" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y48" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB48" s="4" t="s">
+      <c r="Z48" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC48" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -4651,61 +4808,64 @@
       <c r="D49" s="2">
         <v>180</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="7" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y49" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB49" s="4" t="s">
+      <c r="Z49" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC49" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
@@ -4718,61 +4878,64 @@
       <c r="D50" s="2">
         <v>190</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="R50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R50" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S50" s="4"/>
+      <c r="S50" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T50" s="4"/>
-      <c r="U50" s="7" t="s">
+      <c r="U50" s="4"/>
+      <c r="V50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Y50" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB50" s="4" t="s">
+      <c r="Z50" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC50" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>170</v>
       </c>
@@ -4785,63 +4948,66 @@
       <c r="D51" s="2">
         <v>182</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="R51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U51" s="7" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V51" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Y51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB51" s="4" t="s">
+      <c r="Z51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC51" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -4854,62 +5020,65 @@
       <c r="D52" s="2">
         <v>186</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="R52" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R52" s="4"/>
-      <c r="S52" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="7" t="s">
+      <c r="S52" s="4"/>
+      <c r="T52" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y52" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4" t="s">
+      <c r="Z52" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>150</v>
       </c>
@@ -4922,61 +5091,64 @@
       <c r="D53" s="2">
         <v>185</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="L53" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T53" s="4"/>
-      <c r="U53" s="7" t="s">
+      <c r="S53" s="4"/>
+      <c r="T53" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U53" s="4"/>
+      <c r="V53" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Y53" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB53" s="4" t="s">
+      <c r="Z53" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC53" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>24</v>
       </c>
@@ -4989,55 +5161,58 @@
       <c r="D54" s="2">
         <v>176</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="R54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R54" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S54" s="4"/>
+      <c r="S54" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T54" s="4"/>
-      <c r="U54" s="7" t="s">
+      <c r="U54" s="4"/>
+      <c r="V54" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>91</v>
       </c>
@@ -5050,55 +5225,58 @@
       <c r="D55" s="2">
         <v>189</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R55" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="S55" s="4"/>
+      <c r="S55" s="14" t="s">
+        <v>334</v>
+      </c>
       <c r="T55" s="4"/>
-      <c r="U55" s="7" t="s">
+      <c r="U55" s="4"/>
+      <c r="V55" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>116</v>
       </c>
@@ -5111,55 +5289,58 @@
       <c r="D56" s="2">
         <v>190</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="P56" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="R56" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T56" s="4"/>
-      <c r="U56" s="7" t="s">
+      <c r="S56" s="4"/>
+      <c r="T56" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="U56" s="4"/>
+      <c r="V56" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>328</v>
@@ -5171,50 +5352,53 @@
         <v>330</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="P57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="R57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="10"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="10"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>336</v>
       </c>
@@ -5230,79 +5414,76 @@
         <f>AVERAGE(D3:D56)</f>
         <v>180.61111111111111</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8">
         <v>9.8555104674042902</v>
       </c>
-      <c r="F58" s="8">
+      <c r="G58" s="8">
         <v>5.0190993240512149</v>
       </c>
-      <c r="G58" s="8">
+      <c r="H58" s="8">
         <v>9.5981364650896932</v>
       </c>
-      <c r="H58" s="8">
+      <c r="I58" s="8">
         <v>38.710658665794128</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>8.0129199406334966</v>
       </c>
-      <c r="J58" s="8">
+      <c r="K58" s="8">
         <v>28.07664480103508</v>
       </c>
-      <c r="K58" s="8">
+      <c r="L58" s="8">
         <v>23.003705405604851</v>
       </c>
-      <c r="L58" s="8">
+      <c r="M58" s="8">
         <v>192.0433076333251</v>
       </c>
-      <c r="M58" s="8">
+      <c r="N58" s="8">
         <v>191.00624861558489</v>
       </c>
-      <c r="N58" s="8">
+      <c r="O58" s="8">
         <v>25.208478559888292</v>
       </c>
-      <c r="O58" s="8">
+      <c r="P58" s="8">
         <v>25.079968718438909</v>
       </c>
-      <c r="P58" s="9">
+      <c r="Q58" s="9">
         <v>28.634099657855678</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="R58" s="8">
         <v>9.5981364650896932</v>
-      </c>
-      <c r="R58" s="11">
-        <f>COUNTIF(R3:R56,"X")</f>
-        <v>19</v>
       </c>
       <c r="S58" s="11">
         <f>COUNTIF(S3:S56,"X")</f>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="T58" s="11">
         <f>COUNTIF(T3:T56,"X")</f>
+        <v>35</v>
+      </c>
+      <c r="U58" s="11">
+        <f>COUNTIF(U3:U56,"X")</f>
         <v>11</v>
       </c>
-      <c r="U58" s="12" t="s">
+      <c r="V58" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="V58" s="11">
-        <f t="shared" ref="V58:AG58" si="0">COUNTIF(V3:V56,"X")</f>
+      <c r="W58" s="11">
+        <f t="shared" ref="W58:AH58" si="0">COUNTIF(W3:W56,"X")</f>
         <v>0</v>
       </c>
-      <c r="W58" s="11">
+      <c r="X58" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X58" s="11">
+      <c r="Y58" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Z58" s="11">
         <f t="shared" si="0"/>
         <v>48</v>
-      </c>
-      <c r="Z58" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AA58" s="11">
         <f t="shared" si="0"/>
@@ -5310,19 +5491,19 @@
       </c>
       <c r="AB58" s="11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AD58" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE58" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="11">
         <f t="shared" si="0"/>
@@ -5332,8 +5513,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AH58" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>335</v>
       </c>
@@ -5349,79 +5534,76 @@
         <f>STDEV(D3:D56)</f>
         <v>6.9184376758205923</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
         <v>118.450617283951</v>
       </c>
-      <c r="F59" s="6">
+      <c r="G59" s="6">
         <v>77.179012345679013</v>
       </c>
-      <c r="G59" s="6">
+      <c r="H59" s="6">
         <v>54.333333333333343</v>
       </c>
-      <c r="H59" s="6">
+      <c r="I59" s="6">
         <v>169.97499999999999</v>
       </c>
-      <c r="I59" s="6">
+      <c r="J59" s="6">
         <v>101.320987654321</v>
       </c>
-      <c r="J59" s="6">
+      <c r="K59" s="6">
         <v>434.01234567901241</v>
       </c>
-      <c r="K59" s="6">
+      <c r="L59" s="6">
         <v>408.85185185185179</v>
       </c>
-      <c r="L59" s="6">
+      <c r="M59" s="6">
         <v>1136.4320987654321</v>
       </c>
-      <c r="M59" s="6">
+      <c r="N59" s="6">
         <v>1129.320987654321</v>
       </c>
-      <c r="N59" s="6">
+      <c r="O59" s="6">
         <v>52.086956521739133</v>
       </c>
-      <c r="O59" s="6">
+      <c r="P59" s="6">
         <v>67.629629629629633</v>
       </c>
-      <c r="P59" s="6">
+      <c r="Q59" s="6">
         <v>40.962962962962962</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="R59" s="6">
         <v>54.333333333333343</v>
-      </c>
-      <c r="R59" s="13">
-        <f>R58*100/54</f>
-        <v>35.185185185185183</v>
       </c>
       <c r="S59" s="13">
         <f>S58*100/54</f>
-        <v>64.81481481481481</v>
+        <v>35.185185185185183</v>
       </c>
       <c r="T59" s="13">
         <f>T58*100/54</f>
+        <v>64.81481481481481</v>
+      </c>
+      <c r="U59" s="13">
+        <f>U58*100/54</f>
         <v>20.37037037037037</v>
       </c>
-      <c r="U59" s="12" t="s">
+      <c r="V59" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="V59" s="13">
-        <f t="shared" ref="V59:AG59" si="1">V58*100/54</f>
+      <c r="W59" s="13">
+        <f t="shared" ref="W59:AH59" si="1">W58*100/54</f>
         <v>0</v>
       </c>
-      <c r="W59" s="13">
+      <c r="X59" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X59" s="13">
+      <c r="Y59" s="13">
         <f t="shared" si="1"/>
         <v>9.2592592592592595</v>
       </c>
-      <c r="Y59" s="13">
+      <c r="Z59" s="13">
         <f t="shared" si="1"/>
         <v>88.888888888888886</v>
-      </c>
-      <c r="Z59" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="AA59" s="13">
         <f t="shared" si="1"/>
@@ -5429,19 +5611,19 @@
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="13">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="AD59" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="AE59" s="13">
         <f t="shared" si="1"/>
-        <v>1.8518518518518519</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="13">
         <f t="shared" si="1"/>
@@ -5451,12 +5633,16 @@
         <f t="shared" si="1"/>
         <v>1.8518518518518519</v>
       </c>
+      <c r="AH59" s="13">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518519</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6397,7 +6583,7 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P1003">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q1003">
     <sortCondition ref="A1:A1003"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/4 LabelData.xlsx
+++ b/4 LabelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/mjdominguez_us_es/Documents/3- Investigacion/TESIS DIRIGIDAS/[Tesis] Adolfo Muñoz/Artículos/Artículo 2 - EKG - Prevención Muerte Súbita - Data Set/PF12RED/PF12RED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70158114-E612-4A91-8C77-C032BF7727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{70158114-E612-4A91-8C77-C032BF7727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1370A0BE-1E9D-4967-944D-11002766CECA}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="600" windowWidth="33735" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="342">
   <si>
     <t>SysBP</t>
   </si>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E56"/>
+    <sheetView tabSelected="1" topLeftCell="T15" workbookViewId="0">
+      <selection activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5211,6 +5211,21 @@
       <c r="V54" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="AC54" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD54" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE54" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF54" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG54" s="5" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -5275,6 +5290,9 @@
       <c r="V55" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="Z55" s="5" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -5338,6 +5356,12 @@
       <c r="U56" s="4"/>
       <c r="V56" s="7" t="s">
         <v>116</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5483,7 +5507,7 @@
       </c>
       <c r="Z58" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA58" s="11">
         <f t="shared" si="0"/>
@@ -5495,23 +5519,23 @@
       </c>
       <c r="AC58" s="11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD58" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE58" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG58" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH58" s="11">
         <f t="shared" si="0"/>
@@ -5603,7 +5627,7 @@
       </c>
       <c r="Z59" s="13">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="AA59" s="13">
         <f t="shared" si="1"/>
@@ -5615,23 +5639,23 @@
       </c>
       <c r="AC59" s="13">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>70.370370370370367</v>
       </c>
       <c r="AD59" s="13">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
+        <v>7.4074074074074074</v>
       </c>
       <c r="AE59" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.8518518518518519</v>
       </c>
       <c r="AF59" s="13">
         <f t="shared" si="1"/>
-        <v>1.8518518518518519</v>
+        <v>3.7037037037037037</v>
       </c>
       <c r="AG59" s="13">
         <f t="shared" si="1"/>
-        <v>1.8518518518518519</v>
+        <v>3.7037037037037037</v>
       </c>
       <c r="AH59" s="13">
         <f t="shared" si="1"/>

--- a/4 LabelData.xlsx
+++ b/4 LabelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/mjdominguez_us_es/Documents/3- Investigacion/TESIS DIRIGIDAS/[Tesis] Adolfo Muñoz/Artículos/Artículo 2 - EKG - Prevención Muerte Súbita - Data Set/PF12RED/PF12RED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{70158114-E612-4A91-8C77-C032BF7727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1370A0BE-1E9D-4967-944D-11002766CECA}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{70158114-E612-4A91-8C77-C032BF7727C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4675A7FC-6A5F-417B-8EC3-DBA2A3922E80}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29136" yWindow="1008" windowWidth="28800" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="357">
   <si>
     <t>SysBP</t>
   </si>
@@ -1063,6 +1063,51 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>Age (years)</t>
+  </si>
+  <si>
+    <t>Weight (Kg)</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>SysBP (mmHg)</t>
+  </si>
+  <si>
+    <t>DiaBP (mmHg)</t>
+  </si>
+  <si>
+    <t>VentricularRate (bpm)</t>
+  </si>
+  <si>
+    <t>PQInterval (ms)</t>
+  </si>
+  <si>
+    <t>QRSDuration (ms)</t>
+  </si>
+  <si>
+    <t>QTInterval (ms)</t>
+  </si>
+  <si>
+    <t>QTCInterval (ms)</t>
+  </si>
+  <si>
+    <t>RRInterval (ms)</t>
+  </si>
+  <si>
+    <t>PPInterval (ms)</t>
+  </si>
+  <si>
+    <t>Paxis (º)</t>
+  </si>
+  <si>
+    <t>RAxis (º)</t>
+  </si>
+  <si>
+    <t>TAxis (º)</t>
   </si>
 </sst>
 </file>
@@ -1192,15 +1237,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,6 +1277,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,20 +1507,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T15" workbookViewId="0">
-      <selection activeCell="AI51" sqref="AI51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="5" customWidth="1"/>
-    <col min="7" max="21" width="8.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="8.7109375" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="4" customWidth="1"/>
+    <col min="7" max="21" width="8.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="8.7109375" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,100 +1537,100 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:34" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="W2" s="3" t="s">
+      <c r="F2" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="W2" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="17" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="2">
@@ -1591,64 +1645,64 @@
       <c r="E3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B4" s="2">
@@ -1663,59 +1717,59 @@
       <c r="E4" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="7" t="s">
+      <c r="S4" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="2">
@@ -1730,64 +1784,64 @@
       <c r="E5" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V5" s="7" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC5" s="4" t="s">
+      <c r="Z5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="2">
@@ -1802,59 +1856,59 @@
       <c r="E6" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="7" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="2">
@@ -1869,62 +1923,62 @@
       <c r="E7" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="7" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC7" s="4" t="s">
+      <c r="Z7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="2">
@@ -1939,65 +1993,65 @@
       <c r="E8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="7" t="s">
+      <c r="S8" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AF8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AF8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="2">
@@ -2012,59 +2066,59 @@
       <c r="E9" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S9" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="7" t="s">
+      <c r="S9" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B10" s="2">
@@ -2079,64 +2133,64 @@
       <c r="E10" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" s="7" t="s">
+      <c r="S10" s="3"/>
+      <c r="T10" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V10" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC10" s="4" t="s">
+      <c r="Z10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B11" s="2">
@@ -2151,67 +2205,67 @@
       <c r="E11" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="S11" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V11" s="7" t="s">
+      <c r="S11" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="Y11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC11" s="4" t="s">
+      <c r="Y11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="2">
@@ -2226,59 +2280,59 @@
       <c r="E12" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="7" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="Z12" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="2">
@@ -2293,62 +2347,62 @@
       <c r="E13" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="7" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="Z13" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC13" s="4" t="s">
+      <c r="Z13" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC13" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="2">
@@ -2363,62 +2417,62 @@
       <c r="E14" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="7" t="s">
+      <c r="S14" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC14" s="4" t="s">
+      <c r="Z14" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="2">
@@ -2433,59 +2487,59 @@
       <c r="E15" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="7" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Z15" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B16" s="2">
@@ -2500,65 +2554,65 @@
       <c r="E16" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="7" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="Z16" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD16" s="4" t="s">
+      <c r="Z16" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD16" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="2">
@@ -2573,59 +2627,59 @@
       <c r="E17" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="7" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="2">
@@ -2640,65 +2694,65 @@
       <c r="E18" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="7" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Z18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD18" s="4" t="s">
+      <c r="Z18" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD18" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="2">
@@ -2713,65 +2767,65 @@
       <c r="E19" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="7" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC19" s="4" t="s">
+      <c r="Y19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC19" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B20" s="2">
@@ -2786,62 +2840,62 @@
       <c r="E20" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="7" t="s">
+      <c r="S20" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Z20" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC20" s="4" t="s">
+      <c r="Z20" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC20" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="2">
@@ -2856,59 +2910,59 @@
       <c r="E21" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="7" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AC21" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B22" s="2">
@@ -2923,65 +2977,65 @@
       <c r="E22" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="7" t="s">
+      <c r="S22" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Y22" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC22" s="4" t="s">
+      <c r="Y22" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B23" s="2">
@@ -2996,59 +3050,59 @@
       <c r="E23" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="7" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="Z23" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B24" s="2">
@@ -3063,62 +3117,62 @@
       <c r="E24" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="7" t="s">
+      <c r="S24" s="3"/>
+      <c r="T24" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Z24" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC24" s="4" t="s">
+      <c r="Z24" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="2">
@@ -3133,65 +3187,65 @@
       <c r="E25" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="7" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Y25" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC25" s="4" t="s">
+      <c r="Y25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="2">
@@ -3206,59 +3260,59 @@
       <c r="E26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="7" t="s">
+      <c r="S26" s="3"/>
+      <c r="T26" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="V26" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="Z26" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B27" s="2">
@@ -3273,62 +3327,62 @@
       <c r="E27" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S27" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="7" t="s">
+      <c r="S27" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Z27" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC27" s="4" t="s">
+      <c r="Z27" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC27" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2">
@@ -3343,64 +3397,64 @@
       <c r="E28" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V28" s="7" t="s">
+      <c r="S28" s="3"/>
+      <c r="T28" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z28" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC28" s="4" t="s">
+      <c r="Z28" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC28" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B29" s="2">
@@ -3415,67 +3469,67 @@
       <c r="E29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S29" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V29" s="7" t="s">
+      <c r="S29" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V29" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Y29" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC29" s="4" t="s">
+      <c r="Y29" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC29" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>245</v>
       </c>
       <c r="B30" s="2">
@@ -3490,62 +3544,62 @@
       <c r="E30" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S30" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="7" t="s">
+      <c r="S30" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="Z30" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC30" s="4" t="s">
+      <c r="Z30" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC30" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="2">
@@ -3560,62 +3614,62 @@
       <c r="E31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S31" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="7" t="s">
+      <c r="S31" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Z31" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC31" s="4" t="s">
+      <c r="Z31" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC31" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B32" s="2">
@@ -3630,62 +3684,62 @@
       <c r="E32" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="7" t="s">
+      <c r="S32" s="3"/>
+      <c r="T32" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U32" s="3"/>
+      <c r="V32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="Z32" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC32" s="4" t="s">
+      <c r="Z32" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC32" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="2">
@@ -3700,62 +3754,62 @@
       <c r="E33" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="S33" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="7" t="s">
+      <c r="S33" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Z33" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC33" s="4" t="s">
+      <c r="Z33" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC33" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="2">
@@ -3770,62 +3824,62 @@
       <c r="E34" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="7" t="s">
+      <c r="S34" s="3"/>
+      <c r="T34" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Z34" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC34" s="4" t="s">
+      <c r="Z34" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC34" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="2">
@@ -3840,67 +3894,67 @@
       <c r="E35" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V35" s="7" t="s">
+      <c r="S35" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="Z35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD35" s="4" t="s">
+      <c r="Z35" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD35" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2">
@@ -3915,60 +3969,60 @@
       <c r="E36" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="7" t="s">
+      <c r="S36" s="3"/>
+      <c r="T36" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="V36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z36" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC36" s="4"/>
+      <c r="Z36" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2">
@@ -3983,64 +4037,64 @@
       <c r="E37" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V37" s="7" t="s">
+      <c r="S37" s="3"/>
+      <c r="T37" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z37" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC37" s="4" t="s">
+      <c r="Z37" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC37" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B38" s="2">
@@ -4055,56 +4109,56 @@
       <c r="E38" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="S38" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="7" t="s">
+      <c r="S38" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="2">
@@ -4119,62 +4173,62 @@
       <c r="E39" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="7" t="s">
+      <c r="S39" s="3"/>
+      <c r="T39" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U39" s="3"/>
+      <c r="V39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC39" s="4" t="s">
+      <c r="Z39" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC39" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2">
@@ -4189,61 +4243,61 @@
       <c r="E40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V40" s="7" t="s">
+      <c r="S40" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z40" s="4" t="s">
+      <c r="Z40" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="2">
@@ -4258,62 +4312,62 @@
       <c r="E41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="7" t="s">
+      <c r="S41" s="3"/>
+      <c r="T41" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U41" s="3"/>
+      <c r="V41" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="Z41" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC41" s="4" t="s">
+      <c r="Z41" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC41" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="2">
@@ -4328,62 +4382,62 @@
       <c r="E42" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="7" t="s">
+      <c r="S42" s="3"/>
+      <c r="T42" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U42" s="3"/>
+      <c r="V42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="Z42" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC42" s="4" t="s">
+      <c r="Z42" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC42" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="2">
@@ -4398,59 +4452,59 @@
       <c r="E43" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="7" t="s">
+      <c r="S43" s="3"/>
+      <c r="T43" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U43" s="3"/>
+      <c r="V43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z43" s="4" t="s">
+      <c r="Z43" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="2">
@@ -4465,59 +4519,59 @@
       <c r="E44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="S44" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="7" t="s">
+      <c r="S44" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Z44" s="4" t="s">
+      <c r="Z44" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B45" s="2">
@@ -4532,62 +4586,62 @@
       <c r="E45" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="7" t="s">
+      <c r="S45" s="3"/>
+      <c r="T45" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Z45" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC45" s="4" t="s">
+      <c r="Z45" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC45" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B46" s="2">
@@ -4602,62 +4656,62 @@
       <c r="E46" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="R46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U46" s="4"/>
-      <c r="V46" s="7" t="s">
+      <c r="S46" s="3"/>
+      <c r="T46" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U46" s="3"/>
+      <c r="V46" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="Z46" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC46" s="4" t="s">
+      <c r="Z46" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC46" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="2">
@@ -4672,59 +4726,59 @@
       <c r="E47" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U47" s="4"/>
-      <c r="V47" s="7" t="s">
+      <c r="S47" s="3"/>
+      <c r="T47" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U47" s="3"/>
+      <c r="V47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Z47" s="4" t="s">
+      <c r="Z47" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="2">
@@ -4739,64 +4793,64 @@
       <c r="E48" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V48" s="7" t="s">
+      <c r="S48" s="3"/>
+      <c r="T48" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC48" s="4" t="s">
+      <c r="Z48" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC48" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="2">
@@ -4811,62 +4865,62 @@
       <c r="E49" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="R49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="7" t="s">
+      <c r="S49" s="3"/>
+      <c r="T49" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U49" s="3"/>
+      <c r="V49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Z49" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC49" s="4" t="s">
+      <c r="Z49" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC49" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="2">
@@ -4881,62 +4935,62 @@
       <c r="E50" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="Q50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="R50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S50" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="7" t="s">
+      <c r="S50" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z50" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC50" s="4" t="s">
+      <c r="Z50" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC50" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B51" s="2">
@@ -4951,64 +5005,64 @@
       <c r="E51" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="R51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V51" s="7" t="s">
+      <c r="S51" s="3"/>
+      <c r="T51" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V51" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Z51" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC51" s="4" t="s">
+      <c r="Z51" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC51" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B52" s="2">
@@ -5023,63 +5077,63 @@
       <c r="E52" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="O52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="Q52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R52" s="4" t="s">
+      <c r="R52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="7" t="s">
+      <c r="S52" s="3"/>
+      <c r="T52" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U52" s="3"/>
+      <c r="V52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Z52" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4" t="s">
+      <c r="Z52" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B53" s="2">
@@ -5094,62 +5148,62 @@
       <c r="E53" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="O53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="R53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U53" s="4"/>
-      <c r="V53" s="7" t="s">
+      <c r="S53" s="3"/>
+      <c r="T53" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U53" s="3"/>
+      <c r="V53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="Z53" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC53" s="4" t="s">
+      <c r="Z53" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC53" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="2">
@@ -5164,71 +5218,71 @@
       <c r="E54" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N54" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="P54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="Q54" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R54" s="4" t="s">
+      <c r="R54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S54" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="7" t="s">
+      <c r="S54" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AC54" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD54" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE54" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF54" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG54" s="5" t="s">
+      <c r="AC54" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF54" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG54" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B55" s="2">
@@ -5243,59 +5297,59 @@
       <c r="E55" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="Q55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R55" s="4" t="s">
+      <c r="R55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S55" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="7" t="s">
+      <c r="S55" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z55" s="5" t="s">
+      <c r="Z55" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="2">
@@ -5310,62 +5364,62 @@
       <c r="E56" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="O56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="Q56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="R56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="7" t="s">
+      <c r="S56" s="3"/>
+      <c r="T56" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U56" s="3"/>
+      <c r="V56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Z56" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC56" s="5" t="s">
+      <c r="Z56" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>328</v>
       </c>
@@ -5420,244 +5474,244 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-      <c r="V57" s="10"/>
+      <c r="V57" s="9"/>
     </row>
     <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <f>AVERAGE(B3:B56)</f>
         <v>25.74074074074074</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <f>AVERAGE(C3:C56)</f>
         <v>74.905555555555551</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <f>AVERAGE(D3:D56)</f>
         <v>180.61111111111111</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8">
+      <c r="E58" s="7"/>
+      <c r="F58" s="7">
         <v>9.8555104674042902</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>5.0190993240512149</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <v>9.5981364650896932</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>38.710658665794128</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="7">
         <v>8.0129199406334966</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="7">
         <v>28.07664480103508</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="7">
         <v>23.003705405604851</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="7">
         <v>192.0433076333251</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="7">
         <v>191.00624861558489</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="7">
         <v>25.208478559888292</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="7">
         <v>25.079968718438909</v>
       </c>
-      <c r="Q58" s="9">
+      <c r="Q58" s="8">
         <v>28.634099657855678</v>
       </c>
-      <c r="R58" s="8">
+      <c r="R58" s="7">
         <v>9.5981364650896932</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S58" s="10">
         <f>COUNTIF(S3:S56,"X")</f>
         <v>19</v>
       </c>
-      <c r="T58" s="11">
+      <c r="T58" s="10">
         <f>COUNTIF(T3:T56,"X")</f>
         <v>35</v>
       </c>
-      <c r="U58" s="11">
+      <c r="U58" s="10">
         <f>COUNTIF(U3:U56,"X")</f>
         <v>11</v>
       </c>
-      <c r="V58" s="12" t="s">
+      <c r="V58" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="W58" s="11">
+      <c r="W58" s="10">
         <f t="shared" ref="W58:AH58" si="0">COUNTIF(W3:W56,"X")</f>
         <v>0</v>
       </c>
-      <c r="X58" s="11">
+      <c r="X58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Y58" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Z58" s="11">
+      <c r="Z58" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AA58" s="11">
+      <c r="AA58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB58" s="11">
+      <c r="AB58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC58" s="11">
+      <c r="AC58" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AD58" s="11">
+      <c r="AD58" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE58" s="11">
+      <c r="AE58" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF58" s="11">
+      <c r="AF58" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AG58" s="11">
+      <c r="AG58" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AH58" s="11">
+      <c r="AH58" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <f>STDEV(B3:B56)</f>
         <v>5.1622182784301138</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <f>STDEV(C3:C56)</f>
         <v>6.7815904147522152</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <f>STDEV(D3:D56)</f>
         <v>6.9184376758205923</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
         <v>118.450617283951</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>77.179012345679013</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>54.333333333333343</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>169.97499999999999</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>101.320987654321</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>434.01234567901241</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>408.85185185185179</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="5">
         <v>1136.4320987654321</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <v>1129.320987654321</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <v>52.086956521739133</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="5">
         <v>67.629629629629633</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="Q59" s="5">
         <v>40.962962962962962</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="5">
         <v>54.333333333333343</v>
       </c>
-      <c r="S59" s="13">
+      <c r="S59" s="12">
         <f>S58*100/54</f>
         <v>35.185185185185183</v>
       </c>
-      <c r="T59" s="13">
+      <c r="T59" s="12">
         <f>T58*100/54</f>
         <v>64.81481481481481</v>
       </c>
-      <c r="U59" s="13">
+      <c r="U59" s="12">
         <f>U58*100/54</f>
         <v>20.37037037037037</v>
       </c>
-      <c r="V59" s="12" t="s">
+      <c r="V59" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="W59" s="13">
+      <c r="W59" s="12">
         <f t="shared" ref="W59:AH59" si="1">W58*100/54</f>
         <v>0</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="13">
+      <c r="Y59" s="12">
         <f t="shared" si="1"/>
         <v>9.2592592592592595</v>
       </c>
-      <c r="Z59" s="13">
+      <c r="Z59" s="12">
         <f t="shared" si="1"/>
         <v>92.592592592592595</v>
       </c>
-      <c r="AA59" s="13">
+      <c r="AA59" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB59" s="13">
+      <c r="AB59" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC59" s="13">
+      <c r="AC59" s="12">
         <f t="shared" si="1"/>
         <v>70.370370370370367</v>
       </c>
-      <c r="AD59" s="13">
+      <c r="AD59" s="12">
         <f t="shared" si="1"/>
         <v>7.4074074074074074</v>
       </c>
-      <c r="AE59" s="13">
+      <c r="AE59" s="12">
         <f t="shared" si="1"/>
         <v>1.8518518518518519</v>
       </c>
-      <c r="AF59" s="13">
+      <c r="AF59" s="12">
         <f t="shared" si="1"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="AG59" s="13">
+      <c r="AG59" s="12">
         <f t="shared" si="1"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="AH59" s="13">
+      <c r="AH59" s="12">
         <f t="shared" si="1"/>
         <v>1.8518518518518519</v>
       </c>
